--- a/Unity/Assets/Config/Excel/StartConfig/Release/StartProcessConfig@s.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Release/StartProcessConfig@s.xlsx
@@ -4,17 +4,30 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="StartProcessConfig" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
   <si>
     <t>Id</t>
   </si>
@@ -22,22 +35,49 @@
     <t>所属机器</t>
   </si>
   <si>
-    <t>外网端口</t>
+    <t>内网端口</t>
+  </si>
+  <si>
+    <t>dll</t>
+  </si>
+  <si>
+    <t>程序名</t>
+  </si>
+  <si>
+    <t>进程名</t>
   </si>
   <si>
     <t>MachineId</t>
   </si>
   <si>
-    <t>Port</t>
+    <t>InnerPort</t>
+  </si>
+  <si>
+    <t>AppName</t>
+  </si>
+  <si>
+    <t>Title</t>
   </si>
   <si>
     <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>Server</t>
+  </si>
+  <si>
+    <t>Gate</t>
+  </si>
+  <si>
+    <t>Robot</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1027,21 +1067,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:E17"/>
+  <dimension ref="C3:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14:E17"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.35" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="21.1238938053097" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.7522123893805" style="2" customWidth="1"/>
-    <col min="3" max="4" width="12.6283185840708" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
+    <col min="3" max="7" width="12.625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="14.375" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:5">
+    <row r="3" spans="3:8">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1051,30 +1092,57 @@
       <c r="E3" s="4" t="s">
         <v>2</v>
       </c>
+      <c r="F3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="4" spans="3:5">
+    <row r="4" spans="3:8">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>4</v>
+      <c r="G4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="5" spans="3:5">
+    <row r="5" spans="3:8">
       <c r="C5" s="4" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="3:5">
+    <row r="6" s="1" customFormat="1" spans="3:8">
       <c r="C6" s="5">
         <v>1</v>
       </c>
@@ -1082,10 +1150,19 @@
         <v>1</v>
       </c>
       <c r="E6" s="5">
-        <v>20001</v>
+        <v>30332</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="7" spans="3:5">
+    <row r="7" s="1" customFormat="1" spans="3:8">
       <c r="C7" s="5">
         <v>2</v>
       </c>
@@ -1093,117 +1170,16 @@
         <v>1</v>
       </c>
       <c r="E7" s="5">
-        <v>20002</v>
-      </c>
-    </row>
-    <row r="8" spans="3:5">
-      <c r="C8" s="5">
-        <v>3</v>
-      </c>
-      <c r="D8" s="5">
-        <v>1</v>
-      </c>
-      <c r="E8" s="5">
-        <v>20003</v>
-      </c>
-    </row>
-    <row r="9" spans="3:5">
-      <c r="C9" s="5">
-        <v>4</v>
-      </c>
-      <c r="D9" s="5">
-        <v>1</v>
-      </c>
-      <c r="E9" s="5">
-        <v>20004</v>
-      </c>
-    </row>
-    <row r="10" spans="3:5">
-      <c r="C10" s="5">
-        <v>5</v>
-      </c>
-      <c r="D10" s="5">
-        <v>1</v>
-      </c>
-      <c r="E10" s="5">
-        <v>20005</v>
-      </c>
-    </row>
-    <row r="11" spans="3:5">
-      <c r="C11" s="5">
-        <v>6</v>
-      </c>
-      <c r="D11" s="5">
-        <v>1</v>
-      </c>
-      <c r="E11" s="5">
-        <v>20006</v>
-      </c>
-    </row>
-    <row r="12" spans="3:5">
-      <c r="C12" s="5">
-        <v>7</v>
-      </c>
-      <c r="D12" s="5">
-        <v>1</v>
-      </c>
-      <c r="E12" s="5">
-        <v>20007</v>
-      </c>
-    </row>
-    <row r="13" spans="3:5">
-      <c r="C13" s="5">
-        <v>8</v>
-      </c>
-      <c r="D13" s="5">
-        <v>1</v>
-      </c>
-      <c r="E13" s="5">
-        <v>20008</v>
-      </c>
-    </row>
-    <row r="14" spans="3:5">
-      <c r="C14" s="5">
-        <v>9</v>
-      </c>
-      <c r="D14" s="5">
-        <v>1</v>
-      </c>
-      <c r="E14" s="5">
-        <v>20009</v>
-      </c>
-    </row>
-    <row r="15" spans="3:5">
-      <c r="C15" s="5">
-        <v>10</v>
-      </c>
-      <c r="D15" s="5">
-        <v>1</v>
-      </c>
-      <c r="E15" s="5">
-        <v>20010</v>
-      </c>
-    </row>
-    <row r="16" spans="3:5">
-      <c r="C16" s="5">
-        <v>11</v>
-      </c>
-      <c r="D16" s="5">
-        <v>1</v>
-      </c>
-      <c r="E16" s="5">
-        <v>20011</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5">
-      <c r="C17" s="5">
+        <v>30333</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="5">
-        <v>1</v>
-      </c>
-      <c r="E17" s="5">
-        <v>20012</v>
+      <c r="G7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
